--- a/src/main/java/com/vapsTechnosoft/IVRM/data/TestData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13515" windowHeight="6330" tabRatio="500" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13515" windowHeight="6330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -907,13 +907,16 @@
   </si>
   <si>
     <t>HINDU</t>
+  </si>
+  <si>
+    <t>EmailID1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -974,6 +977,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1002,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,6 +1061,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1340,9 +1353,10 @@
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1364,8 +1378,11 @@
       <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1387,8 +1404,11 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1410,8 +1430,11 @@
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1433,8 +1456,11 @@
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1456,8 +1482,11 @@
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -1478,6 +1507,9 @@
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1500,9 +1532,14 @@
     <hyperlink ref="F4" r:id="rId16"/>
     <hyperlink ref="F5" r:id="rId17"/>
     <hyperlink ref="F6" r:id="rId18"/>
+    <hyperlink ref="H2" r:id="rId19" tooltip="mailto:arvind.bose@ats.com"/>
+    <hyperlink ref="H3" r:id="rId20"/>
+    <hyperlink ref="H6" r:id="rId21"/>
+    <hyperlink ref="H4" r:id="rId22"/>
+    <hyperlink ref="H5" r:id="rId23" display="Vaps Techn"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -1701,7 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/com/vapsTechnosoft/IVRM/data/TestData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13515" windowHeight="6330" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13515" windowHeight="6330" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="292">
   <si>
     <t>Name</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>Radha</t>
-  </si>
-  <si>
-    <t>Radha@123</t>
   </si>
   <si>
     <t>arvind</t>
@@ -1341,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1379,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1567,52 +1564,52 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>6</v>
@@ -1620,10 +1617,10 @@
     </row>
     <row r="2" spans="1:17" ht="31.5">
       <c r="A2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -1632,40 +1629,40 @@
         <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>18</v>
@@ -1685,40 +1682,40 @@
         <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>12</v>
@@ -1764,73 +1761,73 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>6</v>
@@ -1838,46 +1835,46 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>50</v>
@@ -1892,19 +1889,19 @@
         <v>53</v>
       </c>
       <c r="S2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>18</v>
@@ -1912,49 +1909,49 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>54</v>
@@ -1966,19 +1963,19 @@
         <v>53</v>
       </c>
       <c r="S3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>12</v>
@@ -2011,22 +2008,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -2034,16 +2031,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>49</v>
@@ -2091,46 +2088,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>6</v>
@@ -2138,102 +2135,102 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2273,52 +2270,52 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>6</v>
@@ -2326,52 +2323,52 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>12</v>
@@ -2408,43 +2405,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -2452,40 +2449,40 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" t="s">
         <v>270</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>55</v>
@@ -2517,27 +2514,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>9</v>
@@ -2566,21 +2563,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2600,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -2611,7 +2608,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -2730,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2755,26 +2752,26 @@
         <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>61</v>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -2788,7 +2785,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2796,10 +2793,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2808,10 +2805,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="mailto:Radha@123"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2835,24 +2832,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2873,42 +2870,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2937,54 +2934,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3011,54 +3008,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3082,30 +3079,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3131,24 +3128,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
